--- a/005-formatacao/16-tabelas-segmentacaoDeDados.xlsx
+++ b/005-formatacao/16-tabelas-segmentacaoDeDados.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Imp\Módulo 3 - Formatação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\hashtag\hashtagExcel\005-formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3424B7D9-647F-4B3F-BFFA-FC4317AB10A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326076F-E67F-400E-B0D2-05125136C5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F1DCBCDB-AE2B-43B4-B740-43329A64DDA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1DCBCDB-AE2B-43B4-B740-43329A64DDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Produto">#N/A</definedName>
+    <definedName name="Slicer_Qtd.">#N/A</definedName>
+    <definedName name="Slicer_Vendedor">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId2"/>
+        <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="16">
   <si>
     <t>Vendedor</t>
   </si>
@@ -79,6 +94,9 @@
   </si>
   <si>
     <t>Bermuda Surf</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -132,7 +150,53 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -145,8 +209,314 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F55A678-5A8A-CAD0-DA6F-BF0452899312}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7829550" y="2095500"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Qtd.">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCDB4D6-A6A3-1103-90B3-121DECC9F0D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Qtd."/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9725025" y="2085975"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Produto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCC8038-D2DA-A95B-9592-C50B442D2D6F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Produto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5924550" y="2105026"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Vendedor" xr10:uid="{3273D651-B3CD-438D-B77C-F1445FC0AD2D}" sourceName="Vendedor">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="1"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Qtd." xr10:uid="{D15A4DFD-EC57-4B4C-92DA-22F12BA28F07}" sourceName="Qtd.">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Produto" xr10:uid="{0C6F468A-08CD-451D-A563-3D01A935FCDF}" sourceName="Produto">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Vendedor" xr10:uid="{E58276B7-CAD4-4A33-8C6C-A0D9EDFD0AF4}" cache="Slicer_Vendedor" caption="Vendedor" rowHeight="241300"/>
+  <slicer name="Qtd." xr10:uid="{7FF9224C-D6AA-45EA-BB21-C134DA553114}" cache="Slicer_Qtd." caption="Qtd." columnCount="2" rowHeight="241300"/>
+  <slicer name="Produto" xr10:uid="{029B0B14-179E-4907-BE40-CE799ED965DF}" cache="Slicer_Produto" caption="Produto" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA11CACB-8302-468F-AC49-57E31E66094B}" name="Table1" displayName="Table1" ref="A1:F298" totalsRowCount="1" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A1:F297" xr:uid="{DA11CACB-8302-468F-AC49-57E31E66094B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Boné Giga"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E20FB710-7420-45D8-9D6E-D649F37140A2}" name="Vendedor" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D3CFEA3C-CB87-49CE-A50C-FE851C74504E}" name="Produto" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{AC57001E-A411-40F8-8450-4D88473105D4}" name="Data" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5FDFB9B9-EF88-4E1E-A0B0-F78FF35C7677}" name="Qtd." dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3649F9C3-A913-48F4-B5AA-072B1F2F2401}" name="ValorProduto" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D14E6C97-2ACA-4B0B-B1AD-D89620A82FF7}" name="ValorTotal" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
+      <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,20 +812,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B57C723-6BDD-4285-A449-C142A2C89BA1}">
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I225" sqref="I225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="6" width="16.109375" customWidth="1"/>
+    <col min="1" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -496,7 +866,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -517,7 +887,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -538,7 +908,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -559,7 +929,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -580,7 +950,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -601,7 +971,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -622,7 +992,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -643,7 +1013,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,7 +1034,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -685,7 +1055,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -706,7 +1076,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -727,7 +1097,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -748,7 +1118,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -769,7 +1139,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -790,7 +1160,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,7 +1181,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,7 +1202,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,7 +1223,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,7 +1244,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -895,7 +1265,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,7 +1286,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -937,7 +1307,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,7 +1328,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,7 +1349,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,7 +1370,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1391,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1412,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1433,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1454,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1475,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1496,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1517,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1538,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1559,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1580,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1601,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1622,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1643,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1664,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +1685,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1706,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1727,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1378,7 +1748,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -1399,7 +1769,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1790,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1441,7 +1811,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1832,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1853,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -1504,7 +1874,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1895,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1916,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1937,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +1958,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -1609,7 +1979,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +2000,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +2021,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +2042,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +2063,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +2084,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +2105,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +2126,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -1777,7 +2147,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -1798,7 +2168,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -1819,7 +2189,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +2210,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -1861,7 +2231,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +2252,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -1903,7 +2273,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +2294,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +2315,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -1966,7 +2336,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -1987,7 +2357,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2378,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2399,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2420,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -2071,7 +2441,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2462,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2483,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -2134,7 +2504,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -2155,7 +2525,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2546,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -2197,7 +2567,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2588,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2609,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2630,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -2281,7 +2651,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2672,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2693,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -2344,7 +2714,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2735,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -2386,7 +2756,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2777,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -2428,7 +2798,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -2449,7 +2819,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
@@ -2470,7 +2840,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2861,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2882,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2903,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -2554,7 +2924,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -2575,7 +2945,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -2596,7 +2966,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -2617,7 +2987,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -2638,7 +3008,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -2659,7 +3029,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -2680,7 +3050,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -2701,7 +3071,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +3092,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -2743,7 +3113,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +3134,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -2785,7 +3155,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -2806,7 +3176,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +3197,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -2848,7 +3218,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
@@ -2869,7 +3239,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -2890,7 +3260,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -2911,7 +3281,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -2932,7 +3302,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
@@ -2953,7 +3323,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +3344,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -2995,7 +3365,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3386,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -3037,7 +3407,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -3058,7 +3428,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3449,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -3100,7 +3470,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3491,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3512,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -3163,7 +3533,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
@@ -3184,7 +3554,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -3205,7 +3575,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -3226,7 +3596,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +3617,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3268,7 +3638,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3289,7 +3659,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3680,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -3331,7 +3701,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -3352,7 +3722,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -3373,7 +3743,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -3394,7 +3764,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -3415,7 +3785,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -3436,7 +3806,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -3457,7 +3827,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
@@ -3478,7 +3848,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -3499,7 +3869,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
@@ -3520,7 +3890,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -3541,7 +3911,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -3562,7 +3932,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -3583,7 +3953,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -3604,7 +3974,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -3625,7 +3995,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -3646,7 +4016,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -3667,7 +4037,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -3688,7 +4058,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -3709,7 +4079,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -3730,7 +4100,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
@@ -3751,7 +4121,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +4142,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>11</v>
       </c>
@@ -3793,7 +4163,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -3814,7 +4184,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -3835,7 +4205,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +4226,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
@@ -3877,7 +4247,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
@@ -3898,7 +4268,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>8</v>
       </c>
@@ -3919,7 +4289,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -3940,7 +4310,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +4331,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -3982,7 +4352,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
@@ -4003,7 +4373,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4394,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>8</v>
       </c>
@@ -4045,7 +4415,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4436,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -4087,7 +4457,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
@@ -4108,7 +4478,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
@@ -4129,7 +4499,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>13</v>
       </c>
@@ -4150,7 +4520,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>8</v>
       </c>
@@ -4171,7 +4541,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>11</v>
       </c>
@@ -4192,7 +4562,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>6</v>
       </c>
@@ -4213,7 +4583,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>13</v>
       </c>
@@ -4234,7 +4604,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
@@ -4255,7 +4625,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>8</v>
       </c>
@@ -4276,7 +4646,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>8</v>
       </c>
@@ -4297,7 +4667,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
@@ -4318,7 +4688,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -4339,7 +4709,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -4360,7 +4730,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
@@ -4381,7 +4751,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4772,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>8</v>
       </c>
@@ -4423,7 +4793,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4814,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
@@ -4465,7 +4835,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>8</v>
       </c>
@@ -4486,7 +4856,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>8</v>
       </c>
@@ -4507,7 +4877,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -4528,7 +4898,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>13</v>
       </c>
@@ -4549,7 +4919,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
@@ -4570,7 +4940,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>11</v>
       </c>
@@ -4591,7 +4961,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>13</v>
       </c>
@@ -4612,7 +4982,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>11</v>
       </c>
@@ -4633,7 +5003,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>13</v>
       </c>
@@ -4654,7 +5024,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -4675,7 +5045,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>11</v>
       </c>
@@ -4696,7 +5066,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>6</v>
       </c>
@@ -4717,7 +5087,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -4738,7 +5108,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>13</v>
       </c>
@@ -4759,7 +5129,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>6</v>
       </c>
@@ -4780,7 +5150,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>8</v>
       </c>
@@ -4801,7 +5171,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>8</v>
       </c>
@@ -4822,7 +5192,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>13</v>
       </c>
@@ -4843,7 +5213,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
@@ -4864,7 +5234,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>11</v>
       </c>
@@ -4885,7 +5255,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +5276,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +5297,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
@@ -4948,7 +5318,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
@@ -4969,7 +5339,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>8</v>
       </c>
@@ -4990,7 +5360,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>6</v>
       </c>
@@ -5011,7 +5381,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
@@ -5032,7 +5402,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>13</v>
       </c>
@@ -5053,7 +5423,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>8</v>
       </c>
@@ -5074,7 +5444,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>11</v>
       </c>
@@ -5095,7 +5465,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -5116,7 +5486,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>8</v>
       </c>
@@ -5137,7 +5507,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -5158,7 +5528,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -5179,7 +5549,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -5200,7 +5570,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>13</v>
       </c>
@@ -5221,7 +5591,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>8</v>
       </c>
@@ -5242,7 +5612,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>8</v>
       </c>
@@ -5263,7 +5633,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -5284,7 +5654,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>8</v>
       </c>
@@ -5305,7 +5675,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
@@ -5326,7 +5696,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>6</v>
       </c>
@@ -5347,7 +5717,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -5368,7 +5738,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -5389,7 +5759,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
@@ -5410,7 +5780,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -5431,7 +5801,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>8</v>
       </c>
@@ -5452,7 +5822,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5843,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
@@ -5494,7 +5864,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -5515,7 +5885,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>6</v>
       </c>
@@ -5536,7 +5906,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>6</v>
       </c>
@@ -5557,7 +5927,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>6</v>
       </c>
@@ -5578,7 +5948,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5969,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>6</v>
       </c>
@@ -5620,7 +5990,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>8</v>
       </c>
@@ -5641,7 +6011,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -5662,7 +6032,7 @@
         <v>299.5</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>6</v>
       </c>
@@ -5683,7 +6053,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>13</v>
       </c>
@@ -5704,7 +6074,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>13</v>
       </c>
@@ -5725,7 +6095,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>6</v>
       </c>
@@ -5746,7 +6116,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>8</v>
       </c>
@@ -5767,7 +6137,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>11</v>
       </c>
@@ -5788,7 +6158,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>13</v>
       </c>
@@ -5809,7 +6179,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>8</v>
       </c>
@@ -5830,7 +6200,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>11</v>
       </c>
@@ -5851,7 +6221,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>8</v>
       </c>
@@ -5872,7 +6242,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>6</v>
       </c>
@@ -5893,7 +6263,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>6</v>
       </c>
@@ -5914,7 +6284,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>8</v>
       </c>
@@ -5935,7 +6305,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>11</v>
       </c>
@@ -5956,7 +6326,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>11</v>
       </c>
@@ -5977,7 +6347,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>8</v>
       </c>
@@ -5998,7 +6368,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>6</v>
       </c>
@@ -6019,7 +6389,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>6</v>
       </c>
@@ -6040,7 +6410,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>6</v>
       </c>
@@ -6061,7 +6431,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>13</v>
       </c>
@@ -6082,7 +6452,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>6</v>
       </c>
@@ -6103,7 +6473,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>6</v>
       </c>
@@ -6124,7 +6494,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>8</v>
       </c>
@@ -6145,7 +6515,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>13</v>
       </c>
@@ -6166,7 +6536,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>13</v>
       </c>
@@ -6187,7 +6557,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>13</v>
       </c>
@@ -6208,7 +6578,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>8</v>
       </c>
@@ -6229,7 +6599,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>8</v>
       </c>
@@ -6250,7 +6620,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>11</v>
       </c>
@@ -6271,7 +6641,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
@@ -6292,7 +6662,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>11</v>
       </c>
@@ -6313,7 +6683,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>11</v>
       </c>
@@ -6334,7 +6704,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>13</v>
       </c>
@@ -6355,7 +6725,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>8</v>
       </c>
@@ -6376,7 +6746,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>13</v>
       </c>
@@ -6397,7 +6767,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>8</v>
       </c>
@@ -6418,7 +6788,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -6439,7 +6809,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>11</v>
       </c>
@@ -6460,7 +6830,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>11</v>
       </c>
@@ -6481,7 +6851,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -6502,7 +6872,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>8</v>
       </c>
@@ -6523,7 +6893,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
@@ -6544,7 +6914,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>11</v>
       </c>
@@ -6565,7 +6935,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>8</v>
       </c>
@@ -6586,7 +6956,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -6607,7 +6977,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -6628,7 +6998,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>11</v>
       </c>
@@ -6649,7 +7019,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>8</v>
       </c>
@@ -6670,7 +7040,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>11</v>
       </c>
@@ -6691,7 +7061,31 @@
         <v>119.8</v>
       </c>
     </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="3">
+        <f>SUBTOTAL(109,Table1[ValorTotal])</f>
+        <v>2034.9000000000017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>